--- a/Portas Lógicas Exercício 02 - Natália.xlsx
+++ b/Portas Lógicas Exercício 02 - Natália.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ADS\ADS_Automacao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natália Nogueira\Desktop\ADS\ADS_Automacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3762BB-B122-4ECA-97E4-D69919E979C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED797D13-75AC-480F-AB6C-AEA156630EF1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="5" xr2:uid="{63589DE7-919D-4536-9115-0D92C656695E}"/>
   </bookViews>
@@ -342,66 +342,6 @@
         <a:xfrm>
           <a:off x="4330700" y="374650"/>
           <a:ext cx="4356100" cy="844550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54E55C57-9794-4D69-B2BB-B0518B0CB86E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect r="21464"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3765550" y="374650"/>
-          <a:ext cx="4743450" cy="933450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -643,66 +583,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagem 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06987C06-F3AA-4458-BF7C-C756EC8F878F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect r="23818"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4241800" y="368300"/>
-          <a:ext cx="4559300" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>603250</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -759,7 +639,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -819,7 +699,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -860,6 +740,66 @@
         <a:xfrm>
           <a:off x="4940300" y="355600"/>
           <a:ext cx="4540250" cy="920115"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54E55C57-9794-4D69-B2BB-B0518B0CB86E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect r="21464"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3765550" y="374650"/>
+          <a:ext cx="4743450" cy="933450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1733,7 +1673,7 @@
   <dimension ref="B2:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1899,7 +1839,7 @@
   <dimension ref="B2:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1991,7 +1931,6 @@
     <mergeCell ref="B2:D2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Portas Lógicas Exercício 02 - Natália.xlsx
+++ b/Portas Lógicas Exercício 02 - Natália.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natália Nogueira\Desktop\ADS\ADS_Automacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED797D13-75AC-480F-AB6C-AEA156630EF1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C428FB7E-37FD-4C9D-A54F-7DE3A3459B49}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="5" xr2:uid="{63589DE7-919D-4536-9115-0D92C656695E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" firstSheet="3" activeTab="6" xr2:uid="{63589DE7-919D-4536-9115-0D92C656695E}"/>
   </bookViews>
   <sheets>
     <sheet name="Exercício 1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,6 @@
     <sheet name="Exercício 7" sheetId="7" r:id="rId7"/>
     <sheet name="Exercício 8" sheetId="8" r:id="rId8"/>
     <sheet name="Exercício 9" sheetId="9" r:id="rId9"/>
-    <sheet name="Exercício 10" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="43">
   <si>
     <t>E1</t>
   </si>
@@ -63,60 +62,18 @@
     <t>Tabela Verdade 5</t>
   </si>
   <si>
-    <t>B (botão)</t>
-  </si>
-  <si>
     <t>Tabela Verdade 6</t>
   </si>
   <si>
-    <t>A (bateria)</t>
-  </si>
-  <si>
-    <t>B (carregador)</t>
-  </si>
-  <si>
-    <t>Alerta</t>
-  </si>
-  <si>
     <t>Tabela Verdade 7</t>
   </si>
   <si>
-    <t>A (identificação)</t>
-  </si>
-  <si>
-    <t>B (senha)</t>
-  </si>
-  <si>
-    <t>Entrada</t>
-  </si>
-  <si>
-    <t>Bomba</t>
-  </si>
-  <si>
-    <t>A (água)</t>
-  </si>
-  <si>
     <t>Tabela Verdade 8</t>
   </si>
   <si>
     <t>Tabela Verdade 9</t>
   </si>
   <si>
-    <t xml:space="preserve">Farol </t>
-  </si>
-  <si>
-    <t>A (falha de energia)</t>
-  </si>
-  <si>
-    <t>Tabela Verdade 10</t>
-  </si>
-  <si>
-    <t>A (solo)</t>
-  </si>
-  <si>
-    <t>B (chuva)</t>
-  </si>
-  <si>
     <t>Irrigação</t>
   </si>
   <si>
@@ -160,6 +117,51 @@
   </si>
   <si>
     <t>Luz</t>
+  </si>
+  <si>
+    <t>A (porta)</t>
+  </si>
+  <si>
+    <t>B (capô)</t>
+  </si>
+  <si>
+    <t>Alarme</t>
+  </si>
+  <si>
+    <t>A (umidade)</t>
+  </si>
+  <si>
+    <t>B (chuvoso)</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Votação</t>
+  </si>
+  <si>
+    <t>Sensor (A1A0)</t>
+  </si>
+  <si>
+    <t>Sensor (B1B0)</t>
+  </si>
+  <si>
+    <t>Temperaturas iguais</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>Sensor (A1A1)</t>
+  </si>
+  <si>
+    <t>Sensor (B1B1)</t>
   </si>
 </sst>
 </file>
@@ -201,7 +203,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -224,37 +226,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -278,10 +254,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -464,28 +437,30 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>177801</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
+      <xdr:colOff>6350</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:rowOff>28020</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagem 2">
+        <xdr:cNvPr id="5" name="Imagem 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42BA9F94-4A0D-44F5-A8EB-61BBE37F495F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CBAE44A-5C80-4EA2-81E4-D82F2BF0B6E1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
+      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -493,25 +468,18 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect r="25000"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="4933950" y="361950"/>
-          <a:ext cx="4356100" cy="958850"/>
+          <a:off x="4933951" y="361951"/>
+          <a:ext cx="4349749" cy="955119"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -583,29 +551,79 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6145" name="AutoShape 1" descr="blob:https://web.whatsapp.com/7cef8822-9c60-4975-8178-bbd740e1679d">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6EA7FCB-1C27-42A5-B810-54DC2D6DAB05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4241800" y="2209800"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>603250</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>182083</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>54610</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>59245</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1">
+        <xdr:cNvPr id="4" name="Imagem 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DA3ACEC-32D7-4CED-ADB2-C414FA343BC6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C080AE49-3A82-43FE-AF31-86C2BD3D12D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
+      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -613,25 +631,18 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect l="-1" r="20074"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="4298950" y="374650"/>
-          <a:ext cx="4743450" cy="1153160"/>
+          <a:off x="4235450" y="366233"/>
+          <a:ext cx="4565650" cy="2086962"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -643,29 +654,31 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>184149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagem 3">
+        <xdr:cNvPr id="3" name="Imagem 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BED625EC-34AB-4DE1-8250-64AAA90CA09C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{549A52AA-808B-4EEA-AC6F-0CD083CC7F58}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
+      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -673,25 +686,18 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect r="31093"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="3295650" y="374650"/>
-          <a:ext cx="4743450" cy="1073150"/>
+          <a:off x="4508500" y="368299"/>
+          <a:ext cx="4737100" cy="1428751"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -704,28 +710,76 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8193" name="AutoShape 1" descr="blob:https://web.whatsapp.com/4828cdca-1ea5-4236-8a8c-82a0e050152b">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F479B5FE-C547-4613-9C90-8A0CC21F7F6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4508500" y="2578100"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>6165</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>184950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>170815</xdr:rowOff>
+      <xdr:colOff>6165</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>6165</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1">
+        <xdr:cNvPr id="5" name="Imagem 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF158EDB-2118-44AF-8C45-F2F360BED163}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BB985E1-5C5A-4BBA-AB69-0066E0555CB2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
+      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -733,25 +787,18 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect t="2028" r="23497"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="4940300" y="355600"/>
-          <a:ext cx="4540250" cy="920115"/>
+          <a:off x="4512815" y="369901"/>
+          <a:ext cx="4734758" cy="3335293"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -763,55 +810,44 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:rowOff>3009</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>174465</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Imagem 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54E55C57-9794-4D69-B2BB-B0518B0CB86E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BA779F3-C0CA-4B0D-A758-E81D0A1700AF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect r="21464"/>
-        <a:stretch/>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="3765550" y="374650"/>
-          <a:ext cx="4743450" cy="933450"/>
+          <a:off x="8464551" y="371309"/>
+          <a:ext cx="4552949" cy="1644656"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1150,7 +1186,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>2</v>
@@ -1158,16 +1194,16 @@
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" s="6" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.35">
@@ -1285,106 +1321,6 @@
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEBB42FB-C894-456E-B64F-4E1402869820}">
-  <dimension ref="B2:G8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="8.81640625" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="7" max="7" width="68" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="G2" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:D2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -1396,7 +1332,7 @@
   <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1427,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>2</v>
@@ -1435,16 +1371,16 @@
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" s="6" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.35">
@@ -1606,13 +1542,13 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.35">
@@ -1673,7 +1609,7 @@
   <dimension ref="B2:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1707,13 +1643,13 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.35">
@@ -1724,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.35">
@@ -1803,10 +1739,10 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.35">
@@ -1838,8 +1774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F453BCB-76F3-437F-AA68-4340788A3A6D}">
   <dimension ref="B2:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1852,7 +1788,7 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B2" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -1873,13 +1809,13 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.35">
@@ -1890,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.35">
@@ -1923,7 +1859,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1931,6 +1867,7 @@
     <mergeCell ref="B2:D2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1938,21 +1875,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E5D88F8-B311-416B-8508-C49DDF4B82B8}">
   <dimension ref="B2:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" customWidth="1"/>
     <col min="4" max="4" width="11.7265625" customWidth="1"/>
     <col min="7" max="7" width="67.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B2" s="8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -1973,13 +1910,13 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.35">
@@ -1990,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.35">
@@ -2023,7 +1960,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2037,63 +1974,175 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BED2189B-EEEC-459B-8F85-478FFD71B775}">
-  <dimension ref="B2:F6"/>
+  <dimension ref="B2:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.453125" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" customWidth="1"/>
-    <col min="6" max="6" width="67.81640625" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.36328125" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" customWidth="1"/>
+    <col min="5" max="5" width="9.6328125" customWidth="1"/>
+    <col min="7" max="7" width="67.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="F2" s="4" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="G2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3" t="s">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B5" s="7">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B6" s="7">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B7" s="7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B8" s="7">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B11" s="7">
+        <v>1</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B12" s="7">
+        <v>1</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B2:E2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -2102,31 +2151,34 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{312F269F-DBE2-47AB-86C6-477FF8CDA5BC}">
-  <dimension ref="B2:G8"/>
+  <dimension ref="B2:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="65" customWidth="1"/>
+    <col min="4" max="5" width="19.453125" customWidth="1"/>
+    <col min="6" max="6" width="18.81640625" customWidth="1"/>
+    <col min="9" max="9" width="65" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B2" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
-      <c r="G2" s="4" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="I2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
@@ -2134,21 +2186,33 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5" s="1">
         <v>0</v>
       </c>
@@ -2156,23 +2220,35 @@
         <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6" s="1">
         <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -2180,21 +2256,237 @@
       <c r="D7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B9" s="9">
+        <v>0</v>
+      </c>
+      <c r="C9" s="9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B10" s="9">
+        <v>0</v>
+      </c>
+      <c r="C10" s="9">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B11" s="9">
+        <v>0</v>
+      </c>
+      <c r="C11" s="9">
+        <v>1</v>
+      </c>
+      <c r="D11" s="9">
+        <v>1</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B12" s="9">
+        <v>0</v>
+      </c>
+      <c r="C12" s="9">
+        <v>1</v>
+      </c>
+      <c r="D12" s="9">
+        <v>1</v>
+      </c>
+      <c r="E12" s="9">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B13" s="9">
+        <v>1</v>
+      </c>
+      <c r="C13" s="9">
+        <v>0</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B14" s="9">
+        <v>1</v>
+      </c>
+      <c r="C14" s="9">
+        <v>0</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0</v>
+      </c>
+      <c r="E14" s="9">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B15" s="9">
+        <v>1</v>
+      </c>
+      <c r="C15" s="9">
+        <v>0</v>
+      </c>
+      <c r="D15" s="9">
+        <v>1</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B16" s="9">
+        <v>1</v>
+      </c>
+      <c r="C16" s="9">
+        <v>0</v>
+      </c>
+      <c r="D16" s="9">
+        <v>1</v>
+      </c>
+      <c r="E16" s="9">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B17" s="9">
+        <v>1</v>
+      </c>
+      <c r="C17" s="9">
+        <v>1</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B18" s="9">
+        <v>1</v>
+      </c>
+      <c r="C18" s="9">
+        <v>1</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0</v>
+      </c>
+      <c r="E18" s="9">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B19" s="9">
+        <v>1</v>
+      </c>
+      <c r="C19" s="9">
+        <v>1</v>
+      </c>
+      <c r="D19" s="9">
+        <v>1</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B20" s="9">
+        <v>1</v>
+      </c>
+      <c r="C20" s="9">
+        <v>1</v>
+      </c>
+      <c r="D20" s="9">
+        <v>1</v>
+      </c>
+      <c r="E20" s="9">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B2:F2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
